--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="OrganisationTest" sheetId="3" r:id="rId3"/>
     <sheet name="AssetTest" sheetId="4" r:id="rId4"/>
     <sheet name="Attendance" sheetId="5" r:id="rId5"/>
+    <sheet name="Training" sheetId="6" r:id="rId6"/>
+    <sheet name="Tickets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>username</t>
   </si>
@@ -32,33 +34,18 @@
     <t>Accounts and Finances</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>Morning Shift</t>
   </si>
   <si>
     <t>Developer</t>
   </si>
   <si>
-    <t>T.G</t>
-  </si>
-  <si>
-    <t>ramtg</t>
-  </si>
-  <si>
-    <t>ramtg@gmail.com</t>
-  </si>
-  <si>
     <t>Casual Leave</t>
   </si>
   <si>
     <t>Trivandrum,Kerala</t>
   </si>
   <si>
-    <t>ragvas</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -92,9 +79,6 @@
     <t>employeeId</t>
   </si>
   <si>
-    <t>dateOfJoining</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
@@ -110,9 +94,6 @@
     <t>officeshift</t>
   </si>
   <si>
-    <t>DoB</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -131,9 +112,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>abcbca</t>
-  </si>
-  <si>
     <t>Test_MJ_02</t>
   </si>
   <si>
@@ -152,9 +130,6 @@
     <t>employee</t>
   </si>
   <si>
-    <t>purchaseDate</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
@@ -164,9 +139,6 @@
     <t>serielnum</t>
   </si>
   <si>
-    <t>warrenty</t>
-  </si>
-  <si>
     <t>Machines</t>
   </si>
   <si>
@@ -188,18 +160,74 @@
     <t>maccr021</t>
   </si>
   <si>
-    <t>date</t>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>day1</t>
+  </si>
+  <si>
+    <t>month1</t>
+  </si>
+  <si>
+    <t>year1</t>
+  </si>
+  <si>
+    <t>Nazif</t>
+  </si>
+  <si>
+    <t>srijida</t>
+  </si>
+  <si>
+    <t>srin@gmail.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>aabbcc</t>
+  </si>
+  <si>
+    <t>Selenium Automation</t>
+  </si>
+  <si>
+    <t>Traning Type</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Srijida Nazif</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\/mmm\/yyyy"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -269,26 +291,26 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -585,9 +607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -595,20 +619,47 @@
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
         <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1234556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>456789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>123456788</v>
       </c>
     </row>
   </sheetData>
@@ -618,11 +669,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -630,157 +679,179 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="10" width="22.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="26" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="5" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="12" width="22.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
+    <col min="23" max="23" width="26.42578125" customWidth="1"/>
+    <col min="24" max="24" width="26" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3">
+        <v>123465</v>
+      </c>
+      <c r="F2" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>26</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T2" s="3">
+        <v>111222</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>4567</v>
-      </c>
-      <c r="F2" s="5">
-        <v>43961</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5">
-        <v>33232</v>
-      </c>
-      <c r="P2" s="4">
-        <v>111222</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="N2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -791,7 +862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -809,37 +882,37 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -850,18 +923,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="13" width="20.7109375" customWidth="1"/>
+    <col min="1" max="17" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,78 +942,102 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9">
-        <v>45271</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" t="s">
-        <v>54</v>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4">
+        <v>2023</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" s="9">
-        <v>45271</v>
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -951,15 +1048,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="18.5703125" customWidth="1"/>
+    <col min="1" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -970,18 +1122,76 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="8">
-        <v>45274</v>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="Attendance" sheetId="5" r:id="rId5"/>
     <sheet name="Training" sheetId="6" r:id="rId6"/>
     <sheet name="Tickets" sheetId="7" r:id="rId7"/>
+    <sheet name="FileUpload" sheetId="8" r:id="rId8"/>
+    <sheet name="Logout" sheetId="9" r:id="rId9"/>
+    <sheet name="Staff" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
   <si>
     <t>username</t>
   </si>
@@ -214,13 +217,34 @@
     <t>priority</t>
   </si>
   <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>MD Office</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>role name</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>QA Analyst</t>
+  </si>
+  <si>
+    <t>Custom Menu Access</t>
+  </si>
+  <si>
     <t>Srijida Nazif</t>
-  </si>
-  <si>
-    <t>Employee</t>
-  </si>
-  <si>
-    <t>High</t>
   </si>
 </sst>
 </file>
@@ -667,6 +691,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y2"/>
@@ -1145,9 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1185,17 +1260,92 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
